--- a/bin/generate/input/xlsx/deid.xlsx
+++ b/bin/generate/input/xlsx/deid.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MICA\git\dcmid\toolkit\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\odw\sdk\deid\bin\generate\input\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16056" windowHeight="6156" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16054" windowHeight="6154" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="deid" sheetId="1" r:id="rId1"/>
@@ -1632,36 +1632,6 @@
     <t>InStd.Comp.IOD(fromPS3.3</t>
   </si>
   <si>
-    <t>BasicProfile</t>
-  </si>
-  <si>
-    <t>RetainSafePrivateOption</t>
-  </si>
-  <si>
-    <t>RetainUIDsOption</t>
-  </si>
-  <si>
-    <t>RetainDeviceIdent.Option</t>
-  </si>
-  <si>
-    <t>RetainPatientChars.Option</t>
-  </si>
-  <si>
-    <t>RetainLong.FullDatesOption</t>
-  </si>
-  <si>
-    <t>RetainLong.Modif.DatesOption</t>
-  </si>
-  <si>
-    <t>CleanDesc.Option</t>
-  </si>
-  <si>
-    <t>CleanStruct.Cont.Option</t>
-  </si>
-  <si>
-    <t>CleanGraph.Option</t>
-  </si>
-  <si>
     <t>0x00080050</t>
   </si>
   <si>
@@ -2422,12 +2392,42 @@
   </si>
   <si>
     <t>0x00384000</t>
+  </si>
+  <si>
+    <t>Basic Profile</t>
+  </si>
+  <si>
+    <t>Retain Safe Private Option</t>
+  </si>
+  <si>
+    <t>Retain UIDs Option</t>
+  </si>
+  <si>
+    <t>Retain Device Ident. Option</t>
+  </si>
+  <si>
+    <t>Retain Patient Chars. Option</t>
+  </si>
+  <si>
+    <t>Retain Long. Full Dates Option</t>
+  </si>
+  <si>
+    <t>Retain Long. Modif. Dates Option</t>
+  </si>
+  <si>
+    <t>Clean Desc. Option</t>
+  </si>
+  <si>
+    <t>Clean Struct. Cont. Option</t>
+  </si>
+  <si>
+    <t>Clean Graph. Option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2782,6 +2782,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2817,6 +2834,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2975,13 +3009,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="39.765625" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>531</v>
       </c>
@@ -3031,13 +3065,13 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>529</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>525</v>
       </c>
@@ -3087,7 +3121,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>528</v>
       </c>
@@ -3096,7 +3130,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>270</v>
       </c>
@@ -3119,7 +3153,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>271</v>
       </c>
@@ -3139,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>272</v>
       </c>
@@ -3159,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>273</v>
       </c>
@@ -3182,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>274</v>
       </c>
@@ -3205,7 +3239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>275</v>
       </c>
@@ -3225,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>276</v>
       </c>
@@ -3245,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>277</v>
       </c>
@@ -3268,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>278</v>
       </c>
@@ -3285,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>279</v>
       </c>
@@ -3305,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>280</v>
       </c>
@@ -3322,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>281</v>
       </c>
@@ -3345,7 +3379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>282</v>
       </c>
@@ -3365,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>283</v>
       </c>
@@ -3385,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>284</v>
       </c>
@@ -3408,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>285</v>
       </c>
@@ -3428,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3468,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>286</v>
       </c>
@@ -3485,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>287</v>
       </c>
@@ -3502,7 +3536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>288</v>
       </c>
@@ -3522,7 +3556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -3542,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -3562,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>291</v>
       </c>
@@ -3579,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>292</v>
       </c>
@@ -3596,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>293</v>
       </c>
@@ -3613,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>294</v>
       </c>
@@ -3636,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>295</v>
       </c>
@@ -3656,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>296</v>
       </c>
@@ -3679,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>297</v>
       </c>
@@ -3699,7 +3733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>298</v>
       </c>
@@ -3719,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>299</v>
       </c>
@@ -3739,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>300</v>
       </c>
@@ -3756,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>301</v>
       </c>
@@ -3776,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>302</v>
       </c>
@@ -3793,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>303</v>
       </c>
@@ -3813,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>304</v>
       </c>
@@ -3836,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>305</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>306</v>
       </c>
@@ -3876,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>307</v>
       </c>
@@ -3893,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>308</v>
       </c>
@@ -3913,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>309</v>
       </c>
@@ -3933,7 +3967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>310</v>
       </c>
@@ -3953,7 +3987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>311</v>
       </c>
@@ -3976,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>312</v>
       </c>
@@ -3993,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>313</v>
       </c>
@@ -4010,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>314</v>
       </c>
@@ -4030,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>315</v>
       </c>
@@ -4050,7 +4084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>316</v>
       </c>
@@ -4067,7 +4101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>317</v>
       </c>
@@ -4084,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>318</v>
       </c>
@@ -4104,7 +4138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>319</v>
       </c>
@@ -4124,7 +4158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>320</v>
       </c>
@@ -4144,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>321</v>
       </c>
@@ -4164,7 +4198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>322</v>
       </c>
@@ -4181,7 +4215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>323</v>
       </c>
@@ -4201,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>324</v>
       </c>
@@ -4221,7 +4255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>325</v>
       </c>
@@ -4241,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>326</v>
       </c>
@@ -4261,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>327</v>
       </c>
@@ -4281,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>328</v>
       </c>
@@ -4298,7 +4332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>329</v>
       </c>
@@ -4315,7 +4349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>330</v>
       </c>
@@ -4332,7 +4366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>331</v>
       </c>
@@ -4352,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>332</v>
       </c>
@@ -4372,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>333</v>
       </c>
@@ -4389,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>334</v>
       </c>
@@ -4409,7 +4443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>30</v>
       </c>
@@ -4429,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>335</v>
       </c>
@@ -4449,7 +4483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>336</v>
       </c>
@@ -4466,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>337</v>
       </c>
@@ -4483,7 +4517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>338</v>
       </c>
@@ -4500,7 +4534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>339</v>
       </c>
@@ -4517,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>340</v>
       </c>
@@ -4534,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>341</v>
       </c>
@@ -4551,7 +4585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>342</v>
       </c>
@@ -4568,7 +4602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>343</v>
       </c>
@@ -4585,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>344</v>
       </c>
@@ -4605,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>345</v>
       </c>
@@ -4622,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>346</v>
       </c>
@@ -4639,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>347</v>
       </c>
@@ -4659,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>348</v>
       </c>
@@ -4676,7 +4710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>349</v>
       </c>
@@ -4696,7 +4730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>350</v>
       </c>
@@ -4713,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>351</v>
       </c>
@@ -4730,7 +4764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>352</v>
       </c>
@@ -4747,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>353</v>
       </c>
@@ -4767,7 +4801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>354</v>
       </c>
@@ -4790,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>35</v>
       </c>
@@ -4807,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>355</v>
       </c>
@@ -4827,7 +4861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>356</v>
       </c>
@@ -4847,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>357</v>
       </c>
@@ -4864,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>358</v>
       </c>
@@ -4881,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>359</v>
       </c>
@@ -4898,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>360</v>
       </c>
@@ -4915,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>361</v>
       </c>
@@ -4932,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>362</v>
       </c>
@@ -4949,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>363</v>
       </c>
@@ -4966,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>364</v>
       </c>
@@ -4983,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>365</v>
       </c>
@@ -5020,7 +5054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>366</v>
       </c>
@@ -5037,7 +5071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>367</v>
       </c>
@@ -5054,7 +5088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>368</v>
       </c>
@@ -5071,7 +5105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>369</v>
       </c>
@@ -5088,7 +5122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>370</v>
       </c>
@@ -5105,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>371</v>
       </c>
@@ -5122,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
         <v>372</v>
       </c>
@@ -5139,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>373</v>
       </c>
@@ -5156,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>374</v>
       </c>
@@ -5176,7 +5210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>375</v>
       </c>
@@ -5196,7 +5230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>376</v>
       </c>
@@ -5219,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>377</v>
       </c>
@@ -5242,7 +5276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>378</v>
       </c>
@@ -5262,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>379</v>
       </c>
@@ -5279,7 +5313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>380</v>
       </c>
@@ -5296,7 +5330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>381</v>
       </c>
@@ -5316,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>382</v>
       </c>
@@ -5333,7 +5367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
         <v>383</v>
       </c>
@@ -5353,7 +5387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
         <v>384</v>
       </c>
@@ -5376,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
         <v>385</v>
       </c>
@@ -5393,7 +5427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>386</v>
       </c>
@@ -5413,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
         <v>387</v>
       </c>
@@ -5430,7 +5464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
         <v>388</v>
       </c>
@@ -5447,7 +5481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
         <v>389</v>
       </c>
@@ -5464,7 +5498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
         <v>390</v>
       </c>
@@ -5481,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>391</v>
       </c>
@@ -5492,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B132" t="s">
         <v>392</v>
       </c>
@@ -5509,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>393</v>
       </c>
@@ -5526,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
         <v>394</v>
       </c>
@@ -5537,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
         <v>395</v>
       </c>
@@ -5548,7 +5582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>396</v>
       </c>
@@ -5565,7 +5599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B137" t="s">
         <v>397</v>
       </c>
@@ -5585,7 +5619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
         <v>398</v>
       </c>
@@ -5605,7 +5639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>399</v>
       </c>
@@ -5622,7 +5656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
         <v>400</v>
       </c>
@@ -5642,7 +5676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>401</v>
       </c>
@@ -5659,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B142" t="s">
         <v>402</v>
       </c>
@@ -5679,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B143" t="s">
         <v>403</v>
       </c>
@@ -5702,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>404</v>
       </c>
@@ -5725,7 +5759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>405</v>
       </c>
@@ -5742,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
         <v>406</v>
       </c>
@@ -5765,7 +5799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B147" t="s">
         <v>407</v>
       </c>
@@ -5788,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>408</v>
       </c>
@@ -5808,7 +5842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>409</v>
       </c>
@@ -5828,7 +5862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B150" t="s">
         <v>410</v>
       </c>
@@ -5848,7 +5882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
         <v>411</v>
       </c>
@@ -5868,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
         <v>412</v>
       </c>
@@ -5885,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B153" t="s">
         <v>413</v>
       </c>
@@ -5902,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>414</v>
       </c>
@@ -5919,7 +5953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>415</v>
       </c>
@@ -5936,7 +5970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>416</v>
       </c>
@@ -5953,7 +5987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>417</v>
       </c>
@@ -5970,7 +6004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B158" t="s">
         <v>418</v>
       </c>
@@ -5987,7 +6021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>419</v>
       </c>
@@ -6004,7 +6038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
         <v>420</v>
       </c>
@@ -6021,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B161" t="s">
         <v>421</v>
       </c>
@@ -6038,7 +6072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>422</v>
       </c>
@@ -6055,7 +6089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B163" t="s">
         <v>423</v>
       </c>
@@ -6075,7 +6109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B164" t="s">
         <v>43</v>
       </c>
@@ -6095,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B165" t="s">
         <v>424</v>
       </c>
@@ -6115,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B166" t="s">
         <v>425</v>
       </c>
@@ -6135,7 +6169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>426</v>
       </c>
@@ -6155,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B168" t="s">
         <v>427</v>
       </c>
@@ -6175,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B169" t="s">
         <v>428</v>
       </c>
@@ -6195,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B170" t="s">
         <v>429</v>
       </c>
@@ -6212,7 +6246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>430</v>
       </c>
@@ -6232,7 +6266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>431</v>
       </c>
@@ -6252,7 +6286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>432</v>
       </c>
@@ -6272,7 +6306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>433</v>
       </c>
@@ -6289,7 +6323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B175" t="s">
         <v>434</v>
       </c>
@@ -6309,7 +6343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B176" t="s">
         <v>435</v>
       </c>
@@ -6329,7 +6363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B177" t="s">
         <v>436</v>
       </c>
@@ -6346,7 +6380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B178" t="s">
         <v>437</v>
       </c>
@@ -6366,7 +6400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B179" t="s">
         <v>438</v>
       </c>
@@ -6386,7 +6420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B180" t="s">
         <v>439</v>
       </c>
@@ -6406,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B181" t="s">
         <v>440</v>
       </c>
@@ -6423,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B182" t="s">
         <v>441</v>
       </c>
@@ -6440,7 +6474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
         <v>442</v>
       </c>
@@ -6457,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
         <v>443</v>
       </c>
@@ -6474,7 +6508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B185" t="s">
         <v>444</v>
       </c>
@@ -6491,7 +6525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B186" t="s">
         <v>445</v>
       </c>
@@ -6511,7 +6545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B187" t="s">
         <v>446</v>
       </c>
@@ -6531,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B188" t="s">
         <v>447</v>
       </c>
@@ -6551,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>448</v>
       </c>
@@ -6571,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>449</v>
       </c>
@@ -6591,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>450</v>
       </c>
@@ -6608,7 +6642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>451</v>
       </c>
@@ -6625,7 +6659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B193" t="s">
         <v>452</v>
       </c>
@@ -6645,7 +6679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B194" t="s">
         <v>453</v>
       </c>
@@ -6662,7 +6696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B195" t="s">
         <v>454</v>
       </c>
@@ -6679,7 +6713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>455</v>
       </c>
@@ -6696,7 +6730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>456</v>
       </c>
@@ -6713,7 +6747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B198" t="s">
         <v>457</v>
       </c>
@@ -6733,7 +6767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>458</v>
       </c>
@@ -6750,7 +6784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>459</v>
       </c>
@@ -6767,7 +6801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B201" t="s">
         <v>460</v>
       </c>
@@ -6784,7 +6818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B202" t="s">
         <v>461</v>
       </c>
@@ -6801,7 +6835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>462</v>
       </c>
@@ -6818,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>463</v>
       </c>
@@ -6835,7 +6869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>464</v>
       </c>
@@ -6852,7 +6886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>465</v>
       </c>
@@ -6875,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B207" t="s">
         <v>466</v>
       </c>
@@ -6898,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B208" t="s">
         <v>467</v>
       </c>
@@ -6918,7 +6952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B209" t="s">
         <v>468</v>
       </c>
@@ -6938,7 +6972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B210" t="s">
         <v>469</v>
       </c>
@@ -6961,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B211" t="s">
         <v>470</v>
       </c>
@@ -6984,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B212" t="s">
         <v>471</v>
       </c>
@@ -7004,7 +7038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B213" t="s">
         <v>472</v>
       </c>
@@ -7024,7 +7058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B214" t="s">
         <v>473</v>
       </c>
@@ -7044,7 +7078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B215" t="s">
         <v>474</v>
       </c>
@@ -7064,7 +7098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B216" t="s">
         <v>475</v>
       </c>
@@ -7084,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B217" t="s">
         <v>476</v>
       </c>
@@ -7104,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B218" t="s">
         <v>477</v>
       </c>
@@ -7127,7 +7161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B219" t="s">
         <v>478</v>
       </c>
@@ -7147,7 +7181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B220" t="s">
         <v>479</v>
       </c>
@@ -7167,7 +7201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B221" t="s">
         <v>480</v>
       </c>
@@ -7190,7 +7224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B222" t="s">
         <v>481</v>
       </c>
@@ -7210,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B223" t="s">
         <v>482</v>
       </c>
@@ -7227,7 +7261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B224" t="s">
         <v>483</v>
       </c>
@@ -7247,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B225" t="s">
         <v>484</v>
       </c>
@@ -7267,7 +7301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B226" t="s">
         <v>485</v>
       </c>
@@ -7287,7 +7321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B227" t="s">
         <v>486</v>
       </c>
@@ -7307,7 +7341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B228" t="s">
         <v>487</v>
       </c>
@@ -7327,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B229" t="s">
         <v>488</v>
       </c>
@@ -7347,7 +7381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B230" t="s">
         <v>489</v>
       </c>
@@ -7367,7 +7401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B231" t="s">
         <v>490</v>
       </c>
@@ -7390,7 +7424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B232" t="s">
         <v>491</v>
       </c>
@@ -7410,7 +7444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B233" t="s">
         <v>492</v>
       </c>
@@ -7427,7 +7461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B234" t="s">
         <v>493</v>
       </c>
@@ -7444,7 +7478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B235" t="s">
         <v>494</v>
       </c>
@@ -7464,7 +7498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B236" t="s">
         <v>495</v>
       </c>
@@ -7487,7 +7521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B237" t="s">
         <v>496</v>
       </c>
@@ -7507,7 +7541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B238" t="s">
         <v>497</v>
       </c>
@@ -7527,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B239" t="s">
         <v>498</v>
       </c>
@@ -7547,7 +7581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B240" t="s">
         <v>499</v>
       </c>
@@ -7564,7 +7598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B241" t="s">
         <v>500</v>
       </c>
@@ -7581,7 +7615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B242" t="s">
         <v>501</v>
       </c>
@@ -7604,7 +7638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B243" t="s">
         <v>502</v>
       </c>
@@ -7621,7 +7655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B244" t="s">
         <v>503</v>
       </c>
@@ -7638,7 +7672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B245" t="s">
         <v>504</v>
       </c>
@@ -7655,7 +7689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B246" t="s">
         <v>505</v>
       </c>
@@ -7672,7 +7706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B247" t="s">
         <v>506</v>
       </c>
@@ -7692,7 +7726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B248" t="s">
         <v>59</v>
       </c>
@@ -7709,7 +7743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B249" t="s">
         <v>507</v>
       </c>
@@ -7726,7 +7760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B250" t="s">
         <v>508</v>
       </c>
@@ -7743,7 +7777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B251" t="s">
         <v>509</v>
       </c>
@@ -7760,7 +7794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B252" t="s">
         <v>510</v>
       </c>
@@ -7777,7 +7811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B253" t="s">
         <v>511</v>
       </c>
@@ -7807,26 +7841,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250:N250"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="7" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="46.3828125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.61328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.23046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.61328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="57.9" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>532</v>
       </c>
@@ -7840,42 +7875,42 @@
         <v>534</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>535</v>
+        <v>789</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>536</v>
+        <v>790</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>537</v>
+        <v>791</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>538</v>
+        <v>792</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>539</v>
+        <v>793</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>540</v>
+        <v>794</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>541</v>
+        <v>795</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>542</v>
+        <v>796</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>543</v>
+        <v>797</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -7896,12 +7931,12 @@
       <c r="M2" s="8"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>271</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -7924,12 +7959,12 @@
       <c r="M3" s="8"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -7952,12 +7987,12 @@
       </c>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -7982,12 +8017,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
@@ -8012,12 +8047,12 @@
       <c r="M6" s="8"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1</v>
@@ -8040,12 +8075,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1</v>
@@ -8068,12 +8103,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>1</v>
@@ -8098,12 +8133,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1</v>
@@ -8124,12 +8159,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>279</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>1</v>
@@ -8152,12 +8187,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>280</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1</v>
@@ -8178,12 +8213,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>1</v>
@@ -8208,12 +8243,12 @@
       <c r="M13" s="8"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>1</v>
@@ -8236,12 +8271,12 @@
       <c r="M14" s="8"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>1</v>
@@ -8264,12 +8299,12 @@
       <c r="M15" s="8"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>1</v>
@@ -8294,12 +8329,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -8322,12 +8357,12 @@
       <c r="M17" s="8"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>1</v>
@@ -8352,12 +8387,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -8378,12 +8413,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>286</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>1</v>
@@ -8404,12 +8439,12 @@
       <c r="M20" s="8"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>287</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>1</v>
@@ -8430,12 +8465,12 @@
       <c r="M21" s="8"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
         <v>288</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>1</v>
@@ -8458,12 +8493,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
@@ -8486,12 +8521,12 @@
       <c r="M23" s="8"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="14" t="s">
         <v>290</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>1</v>
@@ -8514,12 +8549,12 @@
       <c r="M24" s="8"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>291</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>1</v>
@@ -8540,12 +8575,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>1</v>
@@ -8566,12 +8601,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>1</v>
@@ -8592,12 +8627,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
         <v>294</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>1</v>
@@ -8622,12 +8657,12 @@
       <c r="M28" s="8"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>1</v>
@@ -8650,12 +8685,12 @@
       </c>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>1</v>
@@ -8680,12 +8715,12 @@
       <c r="M30" s="8"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>1</v>
@@ -8708,12 +8743,12 @@
       <c r="M31" s="8"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>1</v>
@@ -8736,12 +8771,12 @@
       <c r="M32" s="8"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>1</v>
@@ -8764,12 +8799,12 @@
       <c r="M33" s="8"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>1</v>
@@ -8790,12 +8825,12 @@
       <c r="M34" s="8"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>1</v>
@@ -8818,12 +8853,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>1</v>
@@ -8844,12 +8879,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -8872,12 +8907,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -8902,12 +8937,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -8932,12 +8967,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -8958,12 +8993,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -8984,12 +9019,12 @@
       <c r="M41" s="8"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -9012,12 +9047,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>1</v>
@@ -9040,12 +9075,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>1</v>
@@ -9068,12 +9103,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>1</v>
@@ -9098,12 +9133,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>1</v>
@@ -9124,12 +9159,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>1</v>
@@ -9150,12 +9185,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>1</v>
@@ -9178,12 +9213,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -9206,12 +9241,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -9232,12 +9267,12 @@
       <c r="M50" s="8"/>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -9258,12 +9293,12 @@
       <c r="M51" s="8"/>
       <c r="N51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>318</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>1</v>
@@ -9286,12 +9321,12 @@
       <c r="M52" s="8"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>1</v>
@@ -9314,12 +9349,12 @@
       <c r="M53" s="8"/>
       <c r="N53" s="15"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>1</v>
@@ -9342,12 +9377,12 @@
       <c r="M54" s="8"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>1</v>
@@ -9370,12 +9405,12 @@
       <c r="M55" s="8"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1</v>
@@ -9396,12 +9431,12 @@
       <c r="M56" s="8"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>1</v>
@@ -9424,12 +9459,12 @@
       <c r="M57" s="8"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>1</v>
@@ -9452,12 +9487,12 @@
       <c r="M58" s="8"/>
       <c r="N58" s="15"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>1</v>
@@ -9480,12 +9515,12 @@
       <c r="M59" s="8"/>
       <c r="N59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>1</v>
@@ -9508,12 +9543,12 @@
       <c r="M60" s="8"/>
       <c r="N60" s="15"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>1</v>
@@ -9536,12 +9571,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>1</v>
@@ -9562,12 +9597,12 @@
       <c r="M62" s="8"/>
       <c r="N62" s="15"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
@@ -9588,12 +9623,12 @@
       <c r="M63" s="8"/>
       <c r="N63" s="15"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1</v>
@@ -9614,12 +9649,12 @@
       <c r="M64" s="8"/>
       <c r="N64" s="15"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -9642,12 +9677,12 @@
       <c r="M65" s="8"/>
       <c r="N65" s="15"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1</v>
@@ -9670,12 +9705,12 @@
       <c r="M66" s="8"/>
       <c r="N66" s="15"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
         <v>333</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -9696,12 +9731,12 @@
       <c r="M67" s="8"/>
       <c r="N67" s="15"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
         <v>334</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>1</v>
@@ -9724,12 +9759,12 @@
       <c r="M68" s="8"/>
       <c r="N68" s="15"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -9752,12 +9787,12 @@
       <c r="M69" s="8"/>
       <c r="N69" s="15"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
         <v>335</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>1</v>
@@ -9780,12 +9815,12 @@
       <c r="M70" s="8"/>
       <c r="N70" s="15"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
         <v>336</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>1</v>
@@ -9806,12 +9841,12 @@
       <c r="M71" s="8"/>
       <c r="N71" s="15"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
         <v>337</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1</v>
@@ -9832,12 +9867,12 @@
       <c r="M72" s="8"/>
       <c r="N72" s="15"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
         <v>338</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>1</v>
@@ -9858,12 +9893,12 @@
       <c r="M73" s="8"/>
       <c r="N73" s="15"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
         <v>339</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>1</v>
@@ -9884,12 +9919,12 @@
       <c r="M74" s="8"/>
       <c r="N74" s="15"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
         <v>340</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -9910,12 +9945,12 @@
       <c r="M75" s="8"/>
       <c r="N75" s="15"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
         <v>341</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>1</v>
@@ -9936,12 +9971,12 @@
       <c r="M76" s="8"/>
       <c r="N76" s="15"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
         <v>342</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2</v>
@@ -9962,12 +9997,12 @@
       <c r="M77" s="8"/>
       <c r="N77" s="15"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
         <v>343</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2</v>
@@ -9988,12 +10023,12 @@
       <c r="M78" s="8"/>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>2</v>
@@ -10016,12 +10051,12 @@
       <c r="M79" s="8"/>
       <c r="N79" s="15"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>2</v>
@@ -10042,12 +10077,12 @@
       <c r="M80" s="8"/>
       <c r="N80" s="15"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
         <v>346</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2</v>
@@ -10068,12 +10103,12 @@
       <c r="M81" s="8"/>
       <c r="N81" s="15"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -10096,12 +10131,12 @@
       <c r="M82" s="8"/>
       <c r="N82" s="15"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>2</v>
@@ -10122,12 +10157,12 @@
       <c r="M83" s="8"/>
       <c r="N83" s="15"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>1</v>
@@ -10150,12 +10185,12 @@
       <c r="M84" s="8"/>
       <c r="N84" s="15"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>1</v>
@@ -10176,12 +10211,12 @@
       <c r="M85" s="8"/>
       <c r="N85" s="15"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1</v>
@@ -10202,12 +10237,12 @@
       <c r="M86" s="8"/>
       <c r="N86" s="15"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="14" t="s">
         <v>352</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1</v>
@@ -10228,12 +10263,12 @@
       <c r="M87" s="8"/>
       <c r="N87" s="15"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" s="14" t="s">
         <v>353</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>2</v>
@@ -10256,12 +10291,12 @@
       <c r="M88" s="8"/>
       <c r="N88" s="15"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>1</v>
@@ -10286,12 +10321,12 @@
       <c r="M89" s="8"/>
       <c r="N89" s="15"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>1</v>
@@ -10312,12 +10347,12 @@
       <c r="M90" s="8"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" s="14" t="s">
         <v>355</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>1</v>
@@ -10340,12 +10375,12 @@
       <c r="M91" s="8"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" s="14" t="s">
         <v>356</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>1</v>
@@ -10368,12 +10403,12 @@
       <c r="M92" s="8"/>
       <c r="N92" s="15"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" s="14" t="s">
         <v>357</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>1</v>
@@ -10394,12 +10429,12 @@
       <c r="M93" s="8"/>
       <c r="N93" s="15"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>1</v>
@@ -10420,12 +10455,12 @@
       <c r="M94" s="8"/>
       <c r="N94" s="15"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" s="14" t="s">
         <v>359</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>1</v>
@@ -10446,12 +10481,12 @@
       <c r="M95" s="8"/>
       <c r="N95" s="15"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>2</v>
@@ -10472,12 +10507,12 @@
       <c r="M96" s="8"/>
       <c r="N96" s="15"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="14" t="s">
         <v>361</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>2</v>
@@ -10498,12 +10533,12 @@
       <c r="M97" s="8"/>
       <c r="N97" s="15"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="14" t="s">
         <v>362</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>2</v>
@@ -10524,12 +10559,12 @@
       <c r="M98" s="8"/>
       <c r="N98" s="15"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="14" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>1</v>
@@ -10550,12 +10585,12 @@
       <c r="M99" s="8"/>
       <c r="N99" s="15"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="14" t="s">
         <v>364</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>1</v>
@@ -10576,12 +10611,12 @@
       <c r="M100" s="8"/>
       <c r="N100" s="15"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>1</v>
@@ -10604,12 +10639,12 @@
       <c r="M101" s="8"/>
       <c r="N101" s="15"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1</v>
@@ -10630,12 +10665,12 @@
       <c r="M102" s="8"/>
       <c r="N102" s="15"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="14" t="s">
         <v>366</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1</v>
@@ -10656,12 +10691,12 @@
       <c r="M103" s="8"/>
       <c r="N103" s="15"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="14" t="s">
         <v>367</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1</v>
@@ -10682,12 +10717,12 @@
       <c r="M104" s="8"/>
       <c r="N104" s="15"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="14" t="s">
         <v>368</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1</v>
@@ -10708,12 +10743,12 @@
       <c r="M105" s="8"/>
       <c r="N105" s="15"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" s="14" t="s">
         <v>369</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1</v>
@@ -10734,12 +10769,12 @@
       <c r="M106" s="8"/>
       <c r="N106" s="15"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" s="14" t="s">
         <v>370</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>1</v>
@@ -10760,12 +10795,12 @@
       <c r="M107" s="8"/>
       <c r="N107" s="15"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" s="14" t="s">
         <v>371</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1</v>
@@ -10786,12 +10821,12 @@
       <c r="M108" s="8"/>
       <c r="N108" s="15"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" s="14" t="s">
         <v>372</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>1</v>
@@ -10812,12 +10847,12 @@
       <c r="M109" s="8"/>
       <c r="N109" s="15"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" s="14" t="s">
         <v>373</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1</v>
@@ -10838,12 +10873,12 @@
       <c r="M110" s="8"/>
       <c r="N110" s="15"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" s="14" t="s">
         <v>374</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>2</v>
@@ -10866,12 +10901,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" s="14" t="s">
         <v>375</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>1</v>
@@ -10894,12 +10929,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="14" t="s">
         <v>376</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -10924,12 +10959,12 @@
       <c r="M113" s="8"/>
       <c r="N113" s="15"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
         <v>377</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -10954,12 +10989,12 @@
       <c r="M114" s="8"/>
       <c r="N114" s="15"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="14" t="s">
         <v>378</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>1</v>
@@ -10982,12 +11017,12 @@
       <c r="M115" s="8"/>
       <c r="N115" s="15"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="14" t="s">
         <v>379</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>1</v>
@@ -11008,12 +11043,12 @@
       <c r="M116" s="8"/>
       <c r="N116" s="15"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>1</v>
@@ -11034,12 +11069,12 @@
       <c r="M117" s="8"/>
       <c r="N117" s="15"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" s="14" t="s">
         <v>381</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -11062,12 +11097,12 @@
       <c r="M118" s="8"/>
       <c r="N118" s="15"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" s="14" t="s">
         <v>382</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -11088,12 +11123,12 @@
       <c r="M119" s="8"/>
       <c r="N119" s="15"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" s="14" t="s">
         <v>383</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>1</v>
@@ -11116,12 +11151,12 @@
       <c r="M120" s="8"/>
       <c r="N120" s="15"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" s="14" t="s">
         <v>384</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1</v>
@@ -11146,12 +11181,12 @@
       <c r="M121" s="8"/>
       <c r="N121" s="15"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" s="14" t="s">
         <v>385</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1</v>
@@ -11172,12 +11207,12 @@
       <c r="M122" s="8"/>
       <c r="N122" s="15"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="14" t="s">
         <v>386</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>1</v>
@@ -11200,12 +11235,12 @@
       <c r="M123" s="8"/>
       <c r="N123" s="15"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="14" t="s">
         <v>387</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1</v>
@@ -11226,12 +11261,12 @@
       <c r="M124" s="8"/>
       <c r="N124" s="15"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="14" t="s">
         <v>388</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>1</v>
@@ -11252,12 +11287,12 @@
       <c r="M125" s="8"/>
       <c r="N125" s="15"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="14" t="s">
         <v>389</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>1</v>
@@ -11278,12 +11313,12 @@
       <c r="M126" s="8"/>
       <c r="N126" s="15"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="14" t="s">
         <v>390</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -11304,12 +11339,12 @@
       <c r="M127" s="8"/>
       <c r="N127" s="15"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="14" t="s">
         <v>391</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -11326,12 +11361,12 @@
       <c r="M128" s="8"/>
       <c r="N128" s="15"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="14" t="s">
         <v>392</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>1</v>
@@ -11352,12 +11387,12 @@
       <c r="M129" s="8"/>
       <c r="N129" s="15"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="14" t="s">
         <v>393</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>1</v>
@@ -11378,12 +11413,12 @@
       <c r="M130" s="8"/>
       <c r="N130" s="15"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="14" t="s">
         <v>394</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -11400,12 +11435,12 @@
       <c r="M131" s="8"/>
       <c r="N131" s="15"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="14" t="s">
         <v>395</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -11422,12 +11457,12 @@
       <c r="M132" s="8"/>
       <c r="N132" s="15"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="14" t="s">
         <v>396</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>1</v>
@@ -11448,12 +11483,12 @@
       <c r="M133" s="8"/>
       <c r="N133" s="15"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="14" t="s">
         <v>397</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>1</v>
@@ -11476,12 +11511,12 @@
       <c r="M134" s="8"/>
       <c r="N134" s="15"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="14" t="s">
         <v>398</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>1</v>
@@ -11504,12 +11539,12 @@
       <c r="M135" s="8"/>
       <c r="N135" s="15"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="14" t="s">
         <v>399</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>1</v>
@@ -11530,12 +11565,12 @@
       <c r="M136" s="8"/>
       <c r="N136" s="15"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" s="14" t="s">
         <v>400</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>1</v>
@@ -11558,12 +11593,12 @@
       <c r="M137" s="8"/>
       <c r="N137" s="15"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="14" t="s">
         <v>401</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1</v>
@@ -11584,12 +11619,12 @@
       <c r="M138" s="8"/>
       <c r="N138" s="15"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="14" t="s">
         <v>402</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>1</v>
@@ -11612,12 +11647,12 @@
       <c r="M139" s="8"/>
       <c r="N139" s="15"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="14" t="s">
         <v>403</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>1</v>
@@ -11642,12 +11677,12 @@
       <c r="M140" s="8"/>
       <c r="N140" s="15"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" s="14" t="s">
         <v>404</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>1</v>
@@ -11672,12 +11707,12 @@
       <c r="M141" s="8"/>
       <c r="N141" s="15"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>1</v>
@@ -11698,12 +11733,12 @@
       <c r="M142" s="8"/>
       <c r="N142" s="15"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" s="14" t="s">
         <v>406</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>1</v>
@@ -11728,12 +11763,12 @@
       <c r="M143" s="8"/>
       <c r="N143" s="15"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>1</v>
@@ -11758,12 +11793,12 @@
       <c r="M144" s="8"/>
       <c r="N144" s="15"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" s="14" t="s">
         <v>408</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>1</v>
@@ -11786,12 +11821,12 @@
       <c r="M145" s="8"/>
       <c r="N145" s="15"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" s="14" t="s">
         <v>409</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>1</v>
@@ -11814,12 +11849,12 @@
       <c r="M146" s="8"/>
       <c r="N146" s="15"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" s="14" t="s">
         <v>410</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>1</v>
@@ -11842,12 +11877,12 @@
       <c r="M147" s="8"/>
       <c r="N147" s="15"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>1</v>
@@ -11870,12 +11905,12 @@
       <c r="M148" s="8"/>
       <c r="N148" s="15"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" s="14" t="s">
         <v>412</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>1</v>
@@ -11896,12 +11931,12 @@
       <c r="M149" s="8"/>
       <c r="N149" s="15"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" s="14" t="s">
         <v>413</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
@@ -11922,12 +11957,12 @@
       <c r="M150" s="8"/>
       <c r="N150" s="15"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" s="14" t="s">
         <v>414</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>1</v>
@@ -11948,12 +11983,12 @@
       <c r="M151" s="8"/>
       <c r="N151" s="15"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" s="14" t="s">
         <v>415</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>1</v>
@@ -11974,12 +12009,12 @@
       <c r="M152" s="8"/>
       <c r="N152" s="15"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="14" t="s">
         <v>416</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>1</v>
@@ -12000,12 +12035,12 @@
       <c r="M153" s="8"/>
       <c r="N153" s="15"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" s="14" t="s">
         <v>417</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>1</v>
@@ -12026,12 +12061,12 @@
       <c r="M154" s="8"/>
       <c r="N154" s="15"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="14" t="s">
         <v>418</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>2</v>
@@ -12052,12 +12087,12 @@
       <c r="M155" s="8"/>
       <c r="N155" s="15"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="14" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>1</v>
@@ -12078,12 +12113,12 @@
       <c r="M156" s="8"/>
       <c r="N156" s="15"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="14" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>1</v>
@@ -12104,12 +12139,12 @@
       <c r="M157" s="8"/>
       <c r="N157" s="15"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="14" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>1</v>
@@ -12130,12 +12165,12 @@
       <c r="M158" s="8"/>
       <c r="N158" s="15"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="14" t="s">
         <v>422</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>1</v>
@@ -12156,12 +12191,12 @@
       <c r="M159" s="8"/>
       <c r="N159" s="15"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="14" t="s">
         <v>423</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>1</v>
@@ -12184,12 +12219,12 @@
       <c r="M160" s="8"/>
       <c r="N160" s="15"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>1</v>
@@ -12212,12 +12247,12 @@
       <c r="M161" s="8"/>
       <c r="N161" s="15"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" s="14" t="s">
         <v>424</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>1</v>
@@ -12240,12 +12275,12 @@
       <c r="M162" s="8"/>
       <c r="N162" s="15"/>
     </row>
-    <row r="163" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A163" s="17" t="s">
         <v>425</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>1</v>
@@ -12268,12 +12303,12 @@
       <c r="M163" s="8"/>
       <c r="N163" s="15"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" s="14" t="s">
         <v>426</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1</v>
@@ -12296,12 +12331,12 @@
       <c r="M164" s="8"/>
       <c r="N164" s="15"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
         <v>427</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -12324,12 +12359,12 @@
       <c r="M165" s="8"/>
       <c r="N165" s="15"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="14" t="s">
         <v>428</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -12352,12 +12387,12 @@
       <c r="M166" s="8"/>
       <c r="N166" s="15"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="14" t="s">
         <v>429</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>1</v>
@@ -12378,12 +12413,12 @@
       <c r="M167" s="8"/>
       <c r="N167" s="15"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="14" t="s">
         <v>430</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>1</v>
@@ -12406,12 +12441,12 @@
       <c r="M168" s="8"/>
       <c r="N168" s="15"/>
     </row>
-    <row r="169" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A169" s="14" t="s">
         <v>431</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -12434,12 +12469,12 @@
       <c r="M169" s="8"/>
       <c r="N169" s="15"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="14" t="s">
         <v>432</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>1</v>
@@ -12462,12 +12497,12 @@
       <c r="M170" s="8"/>
       <c r="N170" s="15"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="14" t="s">
         <v>433</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>1</v>
@@ -12488,12 +12523,12 @@
       <c r="M171" s="8"/>
       <c r="N171" s="15"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="14" t="s">
         <v>434</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1</v>
@@ -12516,12 +12551,12 @@
       <c r="M172" s="8"/>
       <c r="N172" s="15"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" s="14" t="s">
         <v>435</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>1</v>
@@ -12544,12 +12579,12 @@
       <c r="M173" s="8"/>
       <c r="N173" s="15"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A174" s="14" t="s">
         <v>436</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>1</v>
@@ -12570,12 +12605,12 @@
       <c r="M174" s="8"/>
       <c r="N174" s="15"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="14" t="s">
         <v>437</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>1</v>
@@ -12598,12 +12633,12 @@
       <c r="M175" s="8"/>
       <c r="N175" s="15"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" s="14" t="s">
         <v>438</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>1</v>
@@ -12626,12 +12661,12 @@
       <c r="M176" s="8"/>
       <c r="N176" s="15"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" s="14" t="s">
         <v>439</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>1</v>
@@ -12654,12 +12689,12 @@
       <c r="M177" s="8"/>
       <c r="N177" s="15"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" s="14" t="s">
         <v>440</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>1</v>
@@ -12680,12 +12715,12 @@
       <c r="M178" s="8"/>
       <c r="N178" s="15"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" s="14" t="s">
         <v>441</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>1</v>
@@ -12706,12 +12741,12 @@
       <c r="M179" s="8"/>
       <c r="N179" s="15"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" s="14" t="s">
         <v>442</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>1</v>
@@ -12732,12 +12767,12 @@
       <c r="M180" s="8"/>
       <c r="N180" s="15"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" s="14" t="s">
         <v>443</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>1</v>
@@ -12758,12 +12793,12 @@
       <c r="M181" s="8"/>
       <c r="N181" s="15"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" s="14" t="s">
         <v>444</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -12784,12 +12819,12 @@
       <c r="M182" s="8"/>
       <c r="N182" s="15"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A183" s="14" t="s">
         <v>445</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>1</v>
@@ -12812,12 +12847,12 @@
       <c r="M183" s="8"/>
       <c r="N183" s="15"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" s="14" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>1</v>
@@ -12840,12 +12875,12 @@
       <c r="M184" s="8"/>
       <c r="N184" s="15"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" s="14" t="s">
         <v>447</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>1</v>
@@ -12868,12 +12903,12 @@
       <c r="M185" s="8"/>
       <c r="N185" s="15"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" s="14" t="s">
         <v>448</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>1</v>
@@ -12896,12 +12931,12 @@
       <c r="M186" s="8"/>
       <c r="N186" s="15"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" s="14" t="s">
         <v>449</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>1</v>
@@ -12924,12 +12959,12 @@
       <c r="M187" s="8"/>
       <c r="N187" s="15"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" s="14" t="s">
         <v>450</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>1</v>
@@ -12950,12 +12985,12 @@
       <c r="M188" s="8"/>
       <c r="N188" s="15"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" s="14" t="s">
         <v>451</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>1</v>
@@ -12976,12 +13011,12 @@
       <c r="M189" s="8"/>
       <c r="N189" s="15"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="14" t="s">
         <v>452</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>1</v>
@@ -13004,12 +13039,12 @@
       <c r="M190" s="8"/>
       <c r="N190" s="15"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" s="14" t="s">
         <v>453</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>1</v>
@@ -13030,12 +13065,12 @@
       <c r="M191" s="8"/>
       <c r="N191" s="15"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A192" s="14" t="s">
         <v>454</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>1</v>
@@ -13056,12 +13091,12 @@
       <c r="M192" s="8"/>
       <c r="N192" s="15"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="14" t="s">
         <v>455</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>1</v>
@@ -13082,12 +13117,12 @@
       <c r="M193" s="8"/>
       <c r="N193" s="15"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" s="14" t="s">
         <v>456</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>1</v>
@@ -13108,12 +13143,12 @@
       <c r="M194" s="8"/>
       <c r="N194" s="15"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" s="14" t="s">
         <v>457</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -13136,12 +13171,12 @@
       <c r="M195" s="8"/>
       <c r="N195" s="15"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" s="14" t="s">
         <v>458</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -13162,12 +13197,12 @@
       <c r="M196" s="8"/>
       <c r="N196" s="15"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" s="14" t="s">
         <v>459</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -13188,12 +13223,12 @@
       <c r="M197" s="8"/>
       <c r="N197" s="15"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" s="14" t="s">
         <v>460</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>1</v>
@@ -13214,12 +13249,12 @@
       <c r="M198" s="8"/>
       <c r="N198" s="15"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" s="14" t="s">
         <v>461</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>1</v>
@@ -13240,12 +13275,12 @@
       <c r="M199" s="8"/>
       <c r="N199" s="15"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" s="14" t="s">
         <v>462</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>2</v>
@@ -13266,12 +13301,12 @@
       <c r="M200" s="8"/>
       <c r="N200" s="15"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" s="14" t="s">
         <v>463</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>1</v>
@@ -13292,12 +13327,12 @@
       <c r="M201" s="8"/>
       <c r="N201" s="15"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" s="14" t="s">
         <v>464</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>1</v>
@@ -13318,12 +13353,12 @@
       <c r="M202" s="8"/>
       <c r="N202" s="15"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" s="14" t="s">
         <v>465</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>1</v>
@@ -13348,12 +13383,12 @@
       <c r="M203" s="8"/>
       <c r="N203" s="15"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" s="14" t="s">
         <v>466</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -13378,12 +13413,12 @@
       <c r="M204" s="8"/>
       <c r="N204" s="15"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" s="14" t="s">
         <v>467</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -13406,12 +13441,12 @@
       <c r="M205" s="8"/>
       <c r="N205" s="15"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" s="14" t="s">
         <v>468</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>1</v>
@@ -13434,12 +13469,12 @@
       <c r="M206" s="8"/>
       <c r="N206" s="15"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" s="14" t="s">
         <v>469</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>1</v>
@@ -13464,12 +13499,12 @@
       <c r="M207" s="8"/>
       <c r="N207" s="15"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" s="14" t="s">
         <v>470</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>1</v>
@@ -13494,12 +13529,12 @@
       <c r="M208" s="8"/>
       <c r="N208" s="15"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" s="14" t="s">
         <v>471</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>1</v>
@@ -13522,12 +13557,12 @@
       <c r="M209" s="8"/>
       <c r="N209" s="15"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" s="14" t="s">
         <v>472</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>1</v>
@@ -13550,12 +13585,12 @@
       <c r="M210" s="8"/>
       <c r="N210" s="15"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" s="14" t="s">
         <v>473</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>1</v>
@@ -13578,12 +13613,12 @@
       <c r="M211" s="8"/>
       <c r="N211" s="15"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A212" s="14" t="s">
         <v>474</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -13606,12 +13641,12 @@
       <c r="M212" s="8"/>
       <c r="N212" s="15"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A213" s="14" t="s">
         <v>475</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>2</v>
@@ -13634,12 +13669,12 @@
       <c r="M213" s="8"/>
       <c r="N213" s="15"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A214" s="14" t="s">
         <v>476</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -13662,12 +13697,12 @@
       <c r="M214" s="8"/>
       <c r="N214" s="15"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A215" s="14" t="s">
         <v>477</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>1</v>
@@ -13692,12 +13727,12 @@
       <c r="M215" s="8"/>
       <c r="N215" s="15"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A216" s="14" t="s">
         <v>478</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>1</v>
@@ -13720,12 +13755,12 @@
       <c r="M216" s="8"/>
       <c r="N216" s="15"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A217" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -13748,12 +13783,12 @@
       <c r="M217" s="8"/>
       <c r="N217" s="15"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A218" s="14" t="s">
         <v>480</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>1</v>
@@ -13778,12 +13813,12 @@
       <c r="M218" s="8"/>
       <c r="N218" s="15"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A219" s="14" t="s">
         <v>481</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>1</v>
@@ -13806,12 +13841,12 @@
       <c r="M219" s="8"/>
       <c r="N219" s="15"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A220" s="14" t="s">
         <v>482</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -13832,12 +13867,12 @@
       <c r="M220" s="8"/>
       <c r="N220" s="15"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A221" s="14" t="s">
         <v>483</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>1</v>
@@ -13860,12 +13895,12 @@
       <c r="M221" s="8"/>
       <c r="N221" s="15"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A222" s="14" t="s">
         <v>484</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>1</v>
@@ -13888,12 +13923,12 @@
       <c r="M222" s="8"/>
       <c r="N222" s="15"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A223" s="14" t="s">
         <v>485</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1</v>
@@ -13916,12 +13951,12 @@
       <c r="M223" s="8"/>
       <c r="N223" s="15"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A224" s="14" t="s">
         <v>486</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>1</v>
@@ -13944,12 +13979,12 @@
       <c r="M224" s="8"/>
       <c r="N224" s="15"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" s="14" t="s">
         <v>487</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>1</v>
@@ -13972,12 +14007,12 @@
       <c r="M225" s="8"/>
       <c r="N225" s="15"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" s="14" t="s">
         <v>488</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>1</v>
@@ -14000,12 +14035,12 @@
       <c r="M226" s="8"/>
       <c r="N226" s="15"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" s="14" t="s">
         <v>489</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>2</v>
@@ -14028,12 +14063,12 @@
       <c r="M227" s="8"/>
       <c r="N227" s="15"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" s="14" t="s">
         <v>490</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>1</v>
@@ -14058,12 +14093,12 @@
       <c r="M228" s="8"/>
       <c r="N228" s="15"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" s="14" t="s">
         <v>491</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1</v>
@@ -14086,12 +14121,12 @@
       <c r="M229" s="8"/>
       <c r="N229" s="15"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" s="14" t="s">
         <v>492</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1</v>
@@ -14112,12 +14147,12 @@
       <c r="M230" s="8"/>
       <c r="N230" s="15"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" s="14" t="s">
         <v>493</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>2</v>
@@ -14138,12 +14173,12 @@
       <c r="M231" s="8"/>
       <c r="N231" s="15"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" s="14" t="s">
         <v>494</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1</v>
@@ -14166,12 +14201,12 @@
       <c r="M232" s="8"/>
       <c r="N232" s="15"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" s="14" t="s">
         <v>495</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>1</v>
@@ -14196,12 +14231,12 @@
       <c r="M233" s="8"/>
       <c r="N233" s="15"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" s="14" t="s">
         <v>496</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>1</v>
@@ -14224,12 +14259,12 @@
       <c r="M234" s="8"/>
       <c r="N234" s="15"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="14" t="s">
         <v>497</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -14252,12 +14287,12 @@
       <c r="M235" s="8"/>
       <c r="N235" s="15"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="14" t="s">
         <v>498</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2</v>
@@ -14280,12 +14315,12 @@
       <c r="M236" s="8"/>
       <c r="N236" s="15"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="14" t="s">
         <v>499</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>2</v>
@@ -14306,12 +14341,12 @@
       <c r="M237" s="8"/>
       <c r="N237" s="15"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="14" t="s">
         <v>500</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>1</v>
@@ -14332,12 +14367,12 @@
       <c r="M238" s="8"/>
       <c r="N238" s="15"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" s="14" t="s">
         <v>501</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>1</v>
@@ -14362,12 +14397,12 @@
       <c r="M239" s="8"/>
       <c r="N239" s="15"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" s="14" t="s">
         <v>502</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>2</v>
@@ -14388,12 +14423,12 @@
       <c r="M240" s="8"/>
       <c r="N240" s="15"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A241" s="14" t="s">
         <v>503</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>2</v>
@@ -14414,12 +14449,12 @@
       <c r="M241" s="8"/>
       <c r="N241" s="15"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A242" s="14" t="s">
         <v>504</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>2</v>
@@ -14440,12 +14475,12 @@
       <c r="M242" s="8"/>
       <c r="N242" s="15"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A243" s="14" t="s">
         <v>505</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>2</v>
@@ -14466,12 +14501,12 @@
       <c r="M243" s="8"/>
       <c r="N243" s="15"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A244" s="14" t="s">
         <v>506</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>1</v>
@@ -14494,12 +14529,12 @@
       <c r="M244" s="8"/>
       <c r="N244" s="15"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A245" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>1</v>
@@ -14520,12 +14555,12 @@
       <c r="M245" s="8"/>
       <c r="N245" s="15"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A246" s="14" t="s">
         <v>507</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1</v>
@@ -14546,12 +14581,12 @@
       <c r="M246" s="8"/>
       <c r="N246" s="15"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A247" s="14" t="s">
         <v>508</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>1</v>
@@ -14572,12 +14607,12 @@
       <c r="M247" s="8"/>
       <c r="N247" s="15"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A248" s="14" t="s">
         <v>509</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>1</v>
@@ -14598,12 +14633,12 @@
       <c r="M248" s="8"/>
       <c r="N248" s="15"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A249" s="14" t="s">
         <v>510</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>1</v>
@@ -14624,12 +14659,12 @@
       <c r="M249" s="8"/>
       <c r="N249" s="15"/>
     </row>
-    <row r="250" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A250" s="18" t="s">
         <v>511</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C250" s="19" t="s">
         <v>1</v>
@@ -14652,7 +14687,7 @@
       <c r="M250" s="20"/>
       <c r="N250" s="21"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
